--- a/IO_sample4.xlsx
+++ b/IO_sample4.xlsx
@@ -172,7 +172,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1509,11 +1509,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="72859662"/>
-        <c:axId val="39363531"/>
+        <c:axId val="97152067"/>
+        <c:axId val="71765745"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72859662"/>
+        <c:axId val="97152067"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,14 +1541,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39363531"/>
+        <c:crossAx val="71765745"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39363531"/>
+        <c:axId val="71765745"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1585,7 +1585,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72859662"/>
+        <c:crossAx val="97152067"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1644,9 +1644,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>531360</xdr:colOff>
+      <xdr:colOff>531000</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1655,7 +1655,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8324280" y="9256320"/>
-        <a:ext cx="11177640" cy="3238200"/>
+        <a:ext cx="11177280" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1675,7 +1675,7 @@
   </sheetPr>
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
     </sheetView>
   </sheetViews>
